--- a/survey_reproducibility.xlsx
+++ b/survey_reproducibility.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\R-projects\Americas_project\reproducibilityweb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CEF623C5-15E9-467F-8E9A-CAF2EBD2C545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B601A79-55CA-4D13-A9CC-34503B032D0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="19710" windowHeight="10680" activeTab="1"/>
+    <workbookView xWindow="780" yWindow="840" windowWidth="19710" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="209">
   <si>
     <t>type</t>
   </si>
@@ -293,9 +293,6 @@
   </si>
   <si>
     <t>Colleagues are able to quickly access the data they need through our current data products.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How often do you use powerBI? </t>
   </si>
   <si>
     <t>How comfortable are you with PowerBI?</t>
@@ -667,11 +664,14 @@
   <si>
     <t>I feel UNHCR should invest more in this and get frame agreement as this will convince me to invest time to learn packages</t>
   </si>
+  <si>
+    <t>How often do you do work that could be automated?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1074,13 +1074,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="T1" sqref="T1"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1109,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -1251,7 +1251,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -1315,7 +1315,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F8" t="s">
         <v>40</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -1344,7 +1344,7 @@
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F9" t="s">
         <v>40</v>
@@ -1361,19 +1361,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F10" t="s">
         <v>40</v>
@@ -1390,13 +1390,13 @@
     </row>
     <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>
@@ -1446,10 +1446,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>30</v>
@@ -1470,13 +1470,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
@@ -1496,10 +1496,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s">
         <v>79</v>
@@ -1508,7 +1508,7 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
@@ -1525,10 +1525,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
         <v>80</v>
@@ -1537,7 +1537,7 @@
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" t="s">
         <v>40</v>
@@ -1554,10 +1554,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" t="s">
         <v>81</v>
@@ -1566,7 +1566,7 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F17" t="s">
         <v>40</v>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" t="s">
         <v>82</v>
@@ -1595,7 +1595,7 @@
         <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F18" t="s">
         <v>40</v>
@@ -1615,7 +1615,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
@@ -1642,10 +1642,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>30</v>
@@ -1668,13 +1668,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D21" t="s">
         <v>30</v>
@@ -1694,10 +1694,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
         <v>83</v>
@@ -1706,7 +1706,7 @@
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F22" t="s">
         <v>40</v>
@@ -1723,16 +1723,16 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
         <v>105</v>
-      </c>
-      <c r="B23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" t="s">
-        <v>106</v>
       </c>
       <c r="F23" t="s">
         <v>40</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C24" t="s">
         <v>84</v>
@@ -1761,7 +1761,7 @@
         <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F24" t="s">
         <v>40</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
         <v>85</v>
@@ -1790,7 +1790,7 @@
         <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F25" t="s">
         <v>40</v>
@@ -1810,7 +1810,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
@@ -1835,10 +1835,10 @@
         <v>16</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>30</v>
@@ -1859,13 +1859,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>
@@ -1885,19 +1885,19 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
         <v>105</v>
-      </c>
-      <c r="B29" t="s">
-        <v>179</v>
-      </c>
-      <c r="C29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" t="s">
-        <v>106</v>
       </c>
       <c r="F29" t="s">
         <v>40</v>
@@ -1914,19 +1914,19 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
         <v>105</v>
-      </c>
-      <c r="B30" t="s">
-        <v>180</v>
-      </c>
-      <c r="C30" t="s">
-        <v>181</v>
-      </c>
-      <c r="D30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" t="s">
-        <v>106</v>
       </c>
       <c r="F30" t="s">
         <v>40</v>
@@ -1943,19 +1943,19 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
         <v>105</v>
-      </c>
-      <c r="B31" t="s">
-        <v>166</v>
-      </c>
-      <c r="C31" t="s">
-        <v>168</v>
-      </c>
-      <c r="D31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" t="s">
-        <v>106</v>
       </c>
       <c r="F31" t="s">
         <v>40</v>
@@ -1972,19 +1972,19 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
         <v>105</v>
-      </c>
-      <c r="B32" t="s">
-        <v>182</v>
-      </c>
-      <c r="C32" t="s">
-        <v>169</v>
-      </c>
-      <c r="D32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" t="s">
-        <v>106</v>
       </c>
       <c r="F32" t="s">
         <v>40</v>
@@ -2001,16 +2001,16 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" t="s">
         <v>105</v>
-      </c>
-      <c r="B33" t="s">
-        <v>183</v>
-      </c>
-      <c r="C33" t="s">
-        <v>170</v>
-      </c>
-      <c r="E33" t="s">
-        <v>106</v>
       </c>
       <c r="F33" t="s">
         <v>40</v>
@@ -2027,19 +2027,19 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" t="s">
         <v>105</v>
-      </c>
-      <c r="B34" t="s">
-        <v>184</v>
-      </c>
-      <c r="C34" t="s">
-        <v>185</v>
-      </c>
-      <c r="D34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" t="s">
-        <v>106</v>
       </c>
       <c r="F34" t="s">
         <v>40</v>
@@ -2087,7 +2087,7 @@
         <v>26</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>30</v>
@@ -2108,13 +2108,13 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D37" t="s">
         <v>30</v>
@@ -2134,19 +2134,19 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" t="s">
         <v>105</v>
-      </c>
-      <c r="B38" t="s">
-        <v>178</v>
-      </c>
-      <c r="C38" t="s">
-        <v>171</v>
-      </c>
-      <c r="D38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" t="s">
-        <v>106</v>
       </c>
       <c r="F38" t="s">
         <v>40</v>
@@ -2163,19 +2163,19 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" t="s">
         <v>105</v>
-      </c>
-      <c r="B39" t="s">
-        <v>177</v>
-      </c>
-      <c r="C39" t="s">
-        <v>172</v>
-      </c>
-      <c r="D39" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" t="s">
-        <v>106</v>
       </c>
       <c r="F39" t="s">
         <v>40</v>
@@ -2192,19 +2192,19 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" t="s">
         <v>105</v>
-      </c>
-      <c r="B40" t="s">
-        <v>176</v>
-      </c>
-      <c r="C40" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" t="s">
-        <v>106</v>
       </c>
       <c r="F40" t="s">
         <v>40</v>
@@ -2249,10 +2249,10 @@
         <v>16</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>30</v>
@@ -2273,19 +2273,19 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="D43" t="s">
         <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F43" t="s">
         <v>40</v>
@@ -2302,19 +2302,19 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D44" t="s">
         <v>30</v>
       </c>
       <c r="E44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F44" t="s">
         <v>40</v>
@@ -2331,16 +2331,16 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>203</v>
+      </c>
+      <c r="B45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" t="s">
         <v>204</v>
-      </c>
-      <c r="B45" t="s">
-        <v>150</v>
-      </c>
-      <c r="C45" t="s">
-        <v>109</v>
-      </c>
-      <c r="D45" t="s">
-        <v>205</v>
       </c>
       <c r="F45" t="s">
         <v>40</v>
@@ -2390,7 +2390,7 @@
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D47" t="s">
         <v>30</v>
@@ -2470,7 +2470,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J49"/>
+  <autoFilter ref="A1:J49" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
@@ -2478,10 +2478,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
@@ -2585,10 +2585,10 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2599,10 +2599,10 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2872,435 +2872,435 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
         <v>111</v>
-      </c>
-      <c r="B21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" t="s">
         <v>127</v>
-      </c>
-      <c r="C26" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" t="s">
         <v>131</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>132</v>
-      </c>
-      <c r="C32" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" t="s">
         <v>134</v>
-      </c>
-      <c r="C33" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" t="s">
         <v>136</v>
-      </c>
-      <c r="C34" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
         <v>138</v>
-      </c>
-      <c r="C35" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" t="s">
         <v>140</v>
-      </c>
-      <c r="C36" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" t="s">
         <v>148</v>
-      </c>
-      <c r="C43" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C55" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>198</v>
+      </c>
+      <c r="B59" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" t="s">
         <v>199</v>
-      </c>
-      <c r="B59" t="s">
-        <v>144</v>
-      </c>
-      <c r="C59" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
@@ -3308,7 +3308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3343,7 +3343,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1"/>
+  <autoFilter ref="A1:C1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
